--- a/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
@@ -174,37 +174,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>279.2803871478969</v>
+        <v>267.78843298709495</v>
       </c>
       <c r="D2" t="n">
-        <v>213.4027656470822</v>
+        <v>201.71030198789265</v>
       </c>
       <c r="E2" t="n">
-        <v>122.56076799288638</v>
+        <v>116.99057737077709</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.08149799729823</v>
+        <v>-19.31824888034592</v>
       </c>
       <c r="G2" t="n">
-        <v>68.49591508265948</v>
+        <v>62.65531681829532</v>
       </c>
       <c r="H2" t="n">
-        <v>225.92894083256553</v>
+        <v>221.85047002686323</v>
       </c>
       <c r="I2" t="n">
-        <v>231.4842636443804</v>
+        <v>221.02855086823857</v>
       </c>
       <c r="J2" t="n">
-        <v>156.7196191550105</v>
+        <v>150.79785561631786</v>
       </c>
       <c r="K2" t="n">
-        <v>90.84199765419581</v>
+        <v>84.71972461711556</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2787095064882976</v>
+        <v>1.2889743687510467</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7411996444038962</v>
+        <v>0.7241585307217877</v>
       </c>
     </row>
     <row r="3">
@@ -215,37 +215,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>284.7583222361588</v>
+        <v>274.56954909549495</v>
       </c>
       <c r="D3" t="n">
-        <v>224.36344891103437</v>
+        <v>213.7127809409429</v>
       </c>
       <c r="E3" t="n">
-        <v>138.07359019165443</v>
+        <v>133.585431955404</v>
       </c>
       <c r="F3" t="n">
-        <v>11.45447395392609</v>
+        <v>7.13001888289903</v>
       </c>
       <c r="G3" t="n">
-        <v>86.88446754569581</v>
+        <v>80.5341134675206</v>
       </c>
       <c r="H3" t="n">
-        <v>216.1899414799956</v>
+        <v>212.28707157749554</v>
       </c>
       <c r="I3" t="n">
-        <v>212.90897495710828</v>
+        <v>206.58276205804387</v>
       </c>
       <c r="J3" t="n">
-        <v>146.68473204450436</v>
+        <v>140.98411714009094</v>
       </c>
       <c r="K3" t="n">
-        <v>86.28985871937994</v>
+        <v>80.1273489855389</v>
       </c>
       <c r="L3" t="n">
-        <v>1.062366321038637</v>
+        <v>1.0553854194756576</v>
       </c>
       <c r="M3" t="n">
-        <v>0.624955566083307</v>
+        <v>0.5998210120119125</v>
       </c>
     </row>
   </sheetData>
@@ -308,37 +308,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>26.587911113207447</v>
+        <v>25.7214997378377</v>
       </c>
       <c r="D2" t="n">
-        <v>17.291966246184096</v>
+        <v>16.621497571880173</v>
       </c>
       <c r="E2" t="n">
-        <v>5.130016270624068</v>
+        <v>4.58426010747845</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.104795005444828</v>
+        <v>-10.52735246901665</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7290133944416282</v>
+        <v>0.6120043342496108</v>
       </c>
       <c r="H2" t="n">
-        <v>23.88420099014778</v>
+        <v>22.867817487195573</v>
       </c>
       <c r="I2" t="n">
-        <v>28.396761251628924</v>
+        <v>27.148850040896825</v>
       </c>
       <c r="J2" t="n">
-        <v>21.45789484258338</v>
+        <v>21.13723963035925</v>
       </c>
       <c r="K2" t="n">
-        <v>12.161949975560027</v>
+        <v>12.037237464401723</v>
       </c>
       <c r="L2" t="n">
-        <v>4.182812238911869</v>
+        <v>4.610829039974717</v>
       </c>
       <c r="M2" t="n">
-        <v>2.370742963370859</v>
+        <v>2.6257754102488633</v>
       </c>
     </row>
     <row r="3">
@@ -349,37 +349,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>31.085475399462197</v>
+        <v>30.129397037560732</v>
       </c>
       <c r="D3" t="n">
-        <v>27.046282288862187</v>
+        <v>26.138651761496064</v>
       </c>
       <c r="E3" t="n">
-        <v>21.55574389212135</v>
+        <v>20.44927769861444</v>
       </c>
       <c r="F3" t="n">
-        <v>13.797796052140566</v>
+        <v>13.380794166562161</v>
       </c>
       <c r="G3" t="n">
-        <v>19.117565857477967</v>
+        <v>18.5032005689215</v>
       </c>
       <c r="H3" t="n">
-        <v>11.481335820191891</v>
+        <v>10.906923519843739</v>
       </c>
       <c r="I3" t="n">
-        <v>13.248486236721622</v>
+        <v>12.757857594933903</v>
       </c>
       <c r="J3" t="n">
-        <v>9.529731507340848</v>
+        <v>9.680119338946291</v>
       </c>
       <c r="K3" t="n">
-        <v>5.490538396740838</v>
+        <v>5.6893740628816225</v>
       </c>
       <c r="L3" t="n">
-        <v>0.44209708349819365</v>
+        <v>0.47337218857378893</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2547134733191758</v>
+        <v>0.278218827419372</v>
       </c>
     </row>
   </sheetData>
@@ -442,37 +442,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>279.2803871478969</v>
+        <v>267.78843298709495</v>
       </c>
       <c r="D2" t="n">
-        <v>213.4027656470822</v>
+        <v>201.71030198789265</v>
       </c>
       <c r="E2" t="n">
-        <v>122.56076799288638</v>
+        <v>116.99057737077709</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.08149799729823</v>
+        <v>-19.31824888034592</v>
       </c>
       <c r="G2" t="n">
-        <v>68.49591508265948</v>
+        <v>62.65531681829532</v>
       </c>
       <c r="H2" t="n">
-        <v>225.92894083256553</v>
+        <v>221.85047002686323</v>
       </c>
       <c r="I2" t="n">
-        <v>231.4842636443804</v>
+        <v>221.02855086823857</v>
       </c>
       <c r="J2" t="n">
-        <v>156.7196191550105</v>
+        <v>150.79785561631786</v>
       </c>
       <c r="K2" t="n">
-        <v>90.84199765419581</v>
+        <v>84.71972461711556</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2787095064882976</v>
+        <v>1.2889743687510467</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7411996444038962</v>
+        <v>0.7241585307217877</v>
       </c>
     </row>
     <row r="3">
@@ -483,37 +483,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>168.08875526977653</v>
+        <v>165.4997434355252</v>
       </c>
       <c r="D3" t="n">
-        <v>135.72110187284017</v>
+        <v>133.71596447484893</v>
       </c>
       <c r="E3" t="n">
-        <v>92.46683852572173</v>
+        <v>92.31092720787296</v>
       </c>
       <c r="F3" t="n">
-        <v>23.240176378812546</v>
+        <v>23.99979048783044</v>
       </c>
       <c r="G3" t="n">
-        <v>64.86217946409506</v>
+        <v>64.12024981509732</v>
       </c>
       <c r="H3" t="n">
-        <v>112.12306041853958</v>
+        <v>111.06988048708574</v>
       </c>
       <c r="I3" t="n">
-        <v>112.48092549402762</v>
+        <v>109.7161739870185</v>
       </c>
       <c r="J3" t="n">
-        <v>75.6219167440548</v>
+        <v>73.18881622765224</v>
       </c>
       <c r="K3" t="n">
-        <v>43.25426334711844</v>
+        <v>41.40503726697597</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8178274281867965</v>
+        <v>0.7928510571975942</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4677813585579256</v>
+        <v>0.44853885145944705</v>
       </c>
     </row>
   </sheetData>
@@ -576,37 +576,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>285.0515850547845</v>
+        <v>274.61006562309785</v>
       </c>
       <c r="D2" t="n">
-        <v>216.46050760875926</v>
+        <v>207.0695044566649</v>
       </c>
       <c r="E2" t="n">
-        <v>123.45330952701704</v>
+        <v>118.16425034208515</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.73005643925206</v>
+        <v>-18.847273768277315</v>
       </c>
       <c r="G2" t="n">
-        <v>70.5505354151031</v>
+        <v>65.70966793251223</v>
       </c>
       <c r="H2" t="n">
-        <v>227.2550928241431</v>
+        <v>223.70602722060227</v>
       </c>
       <c r="I2" t="n">
-        <v>234.1905640480113</v>
+        <v>225.91677822494222</v>
       </c>
       <c r="J2" t="n">
-        <v>161.59827552776744</v>
+        <v>156.4458152810127</v>
       </c>
       <c r="K2" t="n">
-        <v>93.00719808174222</v>
+        <v>88.90525411457975</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3089829357098166</v>
+        <v>1.3239690924124896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7533795443644071</v>
+        <v>0.7523870701773108</v>
       </c>
     </row>
     <row r="3">
@@ -617,37 +617,37 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>290.57692463139233</v>
+        <v>280.9651964540591</v>
       </c>
       <c r="D3" t="n">
-        <v>227.65190893905304</v>
+        <v>218.11611381214428</v>
       </c>
       <c r="E3" t="n">
-        <v>139.0525913492338</v>
+        <v>135.09906862500065</v>
       </c>
       <c r="F3" t="n">
-        <v>12.252032771095806</v>
+        <v>8.503913902106781</v>
       </c>
       <c r="G3" t="n">
-        <v>88.9425341799011</v>
+        <v>83.58828382447483</v>
       </c>
       <c r="H3" t="n">
-        <v>217.50718625177822</v>
+        <v>214.14349787211336</v>
       </c>
       <c r="I3" t="n">
-        <v>215.39987616795725</v>
+        <v>209.6121999100375</v>
       </c>
       <c r="J3" t="n">
-        <v>151.52433328215852</v>
+        <v>145.86612782905843</v>
       </c>
       <c r="K3" t="n">
-        <v>88.59931758981924</v>
+        <v>83.01704518714362</v>
       </c>
       <c r="L3" t="n">
-        <v>1.089690827131741</v>
+        <v>1.07969750875148</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6371640882786571</v>
+        <v>0.6144901369940383</v>
       </c>
     </row>
   </sheetData>
@@ -710,37 +710,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>30.13752429282695</v>
+        <v>30.495581029404637</v>
       </c>
       <c r="D2" t="n">
-        <v>19.700821473032867</v>
+        <v>20.371136275395095</v>
       </c>
       <c r="E2" t="n">
-        <v>6.350782367409533</v>
+        <v>7.12889234936849</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.576933176854162</v>
+        <v>-9.147835685099293</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2896677830456915</v>
+        <v>3.3167026840340466</v>
       </c>
       <c r="H2" t="n">
-        <v>24.91704557562109</v>
+        <v>24.121175713179586</v>
       </c>
       <c r="I2" t="n">
-        <v>30.27775464988703</v>
+        <v>29.51897196049439</v>
       </c>
       <c r="J2" t="n">
-        <v>23.786741925417417</v>
+        <v>23.366688680036148</v>
       </c>
       <c r="K2" t="n">
-        <v>13.350039105623335</v>
+        <v>13.242243926026605</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7454821389384136</v>
+        <v>3.2777446389839335</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1021093675217184</v>
+        <v>1.8575457837008384</v>
       </c>
     </row>
     <row r="3">
@@ -751,37 +751,37 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>34.60559480273432</v>
+        <v>34.78462317102317</v>
       </c>
       <c r="D3" t="n">
-        <v>29.38724339283728</v>
+        <v>29.722400794018398</v>
       </c>
       <c r="E3" t="n">
-        <v>22.712223840025615</v>
+        <v>23.12082927088745</v>
       </c>
       <c r="F3" t="n">
-        <v>14.24836606789377</v>
+        <v>14.98968394611616</v>
       </c>
       <c r="G3" t="n">
-        <v>20.681666547843697</v>
+        <v>21.208047319986935</v>
       </c>
       <c r="H3" t="n">
-        <v>12.458522787810544</v>
+        <v>12.051279318205646</v>
       </c>
       <c r="I3" t="n">
-        <v>15.138877324943511</v>
+        <v>14.732716847902237</v>
       </c>
       <c r="J3" t="n">
-        <v>11.893370962708708</v>
+        <v>11.663793900135719</v>
       </c>
       <c r="K3" t="n">
-        <v>6.675019552811666</v>
+        <v>6.601571523130946</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5236550611019029</v>
+        <v>0.5044712611074968</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2938954635101967</v>
+        <v>0.2855248592421078</v>
       </c>
     </row>
   </sheetData>
@@ -844,37 +844,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>285.0515850547845</v>
+        <v>274.61006562309785</v>
       </c>
       <c r="D2" t="n">
-        <v>216.46050760875926</v>
+        <v>207.0695044566649</v>
       </c>
       <c r="E2" t="n">
-        <v>123.45330952701704</v>
+        <v>118.16425034208515</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.73005643925206</v>
+        <v>-18.847273768277315</v>
       </c>
       <c r="G2" t="n">
-        <v>70.5505354151031</v>
+        <v>65.70966793251223</v>
       </c>
       <c r="H2" t="n">
-        <v>227.2550928241431</v>
+        <v>223.70602722060227</v>
       </c>
       <c r="I2" t="n">
-        <v>234.1905640480113</v>
+        <v>225.91677822494222</v>
       </c>
       <c r="J2" t="n">
-        <v>161.59827552776744</v>
+        <v>156.4458152810127</v>
       </c>
       <c r="K2" t="n">
-        <v>93.00719808174222</v>
+        <v>88.90525411457975</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3089829357098166</v>
+        <v>1.3239690924124896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7533795443644071</v>
+        <v>0.7523870701773108</v>
       </c>
     </row>
     <row r="3">
@@ -885,37 +885,37 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>173.32009348268673</v>
+        <v>172.6554928640267</v>
       </c>
       <c r="D3" t="n">
-        <v>138.41348767774522</v>
+        <v>138.54763120224948</v>
       </c>
       <c r="E3" t="n">
-        <v>93.42253405092329</v>
+        <v>93.64965379214469</v>
       </c>
       <c r="F3" t="n">
-        <v>23.872686469241188</v>
+        <v>24.609971855739985</v>
       </c>
       <c r="G3" t="n">
-        <v>66.78966986728976</v>
+        <v>67.18090834208438</v>
       </c>
       <c r="H3" t="n">
-        <v>113.37094719116715</v>
+        <v>112.91796305278825</v>
       </c>
       <c r="I3" t="n">
-        <v>114.54080120850404</v>
+        <v>113.93765934650949</v>
       </c>
       <c r="J3" t="n">
-        <v>79.89755943176344</v>
+        <v>79.00583907188202</v>
       </c>
       <c r="K3" t="n">
-        <v>44.990953626821934</v>
+        <v>44.89797741010479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8552279195104302</v>
+        <v>0.8436319396037</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4815856697089591</v>
+        <v>0.4794249160787696</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
@@ -215,19 +215,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>274.56954909549495</v>
+        <v>267.48369273734477</v>
       </c>
       <c r="D3" t="n">
-        <v>213.7127809409429</v>
+        <v>206.6269245827927</v>
       </c>
       <c r="E3" t="n">
-        <v>133.585431955404</v>
+        <v>126.4995755972538</v>
       </c>
       <c r="F3" t="n">
-        <v>7.13001888289903</v>
+        <v>0.04416252474882043</v>
       </c>
       <c r="G3" t="n">
-        <v>80.5341134675206</v>
+        <v>73.4482571093704</v>
       </c>
       <c r="H3" t="n">
         <v>212.28707157749554</v>
@@ -236,16 +236,16 @@
         <v>206.58276205804387</v>
       </c>
       <c r="J3" t="n">
-        <v>140.98411714009094</v>
+        <v>140.98411714009097</v>
       </c>
       <c r="K3" t="n">
         <v>80.1273489855389</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0553854194756576</v>
+        <v>1.114502688838678</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5998210120119125</v>
+        <v>0.6334199036417827</v>
       </c>
     </row>
   </sheetData>
@@ -349,37 +349,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>30.129397037560732</v>
+        <v>23.04354067941053</v>
       </c>
       <c r="D3" t="n">
-        <v>26.138651761496064</v>
+        <v>19.05279540334587</v>
       </c>
       <c r="E3" t="n">
-        <v>20.44927769861444</v>
+        <v>13.363421340464242</v>
       </c>
       <c r="F3" t="n">
-        <v>13.380794166562161</v>
+        <v>6.2949378084119605</v>
       </c>
       <c r="G3" t="n">
-        <v>18.5032005689215</v>
+        <v>11.417344210771299</v>
       </c>
       <c r="H3" t="n">
         <v>10.906923519843739</v>
       </c>
       <c r="I3" t="n">
-        <v>12.757857594933903</v>
+        <v>12.757857594933908</v>
       </c>
       <c r="J3" t="n">
-        <v>9.680119338946291</v>
+        <v>9.680119338946287</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6893740628816225</v>
+        <v>5.689374062881626</v>
       </c>
       <c r="L3" t="n">
-        <v>0.47337218857378893</v>
+        <v>0.7243743269274185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.278218827419372</v>
+        <v>0.42574232435927817</v>
       </c>
     </row>
   </sheetData>
@@ -483,19 +483,19 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>165.4997434355252</v>
+        <v>154.0160415479052</v>
       </c>
       <c r="D3" t="n">
-        <v>133.71596447484893</v>
+        <v>122.23226258722894</v>
       </c>
       <c r="E3" t="n">
-        <v>92.31092720787296</v>
+        <v>80.82722532025296</v>
       </c>
       <c r="F3" t="n">
-        <v>23.99979048783044</v>
+        <v>12.516088600210448</v>
       </c>
       <c r="G3" t="n">
-        <v>64.12024981509732</v>
+        <v>52.63654792747733</v>
       </c>
       <c r="H3" t="n">
         <v>111.06988048708574</v>
@@ -504,16 +504,16 @@
         <v>109.7161739870185</v>
       </c>
       <c r="J3" t="n">
-        <v>73.18881622765224</v>
+        <v>73.18881622765223</v>
       </c>
       <c r="K3" t="n">
-        <v>41.40503726697597</v>
+        <v>41.40503726697598</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7928510571975942</v>
+        <v>0.9054970764821395</v>
       </c>
       <c r="M3" t="n">
-        <v>0.44853885145944705</v>
+        <v>0.5122659735370265</v>
       </c>
     </row>
   </sheetData>
@@ -617,19 +617,19 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>280.9651964540591</v>
+        <v>273.87934009590884</v>
       </c>
       <c r="D3" t="n">
-        <v>218.11611381214428</v>
+        <v>211.0302574539941</v>
       </c>
       <c r="E3" t="n">
-        <v>135.09906862500065</v>
+        <v>128.01321226685042</v>
       </c>
       <c r="F3" t="n">
-        <v>8.503913902106781</v>
+        <v>1.4180575439565928</v>
       </c>
       <c r="G3" t="n">
-        <v>83.58828382447483</v>
+        <v>76.50242746632463</v>
       </c>
       <c r="H3" t="n">
         <v>214.14349787211336</v>
@@ -641,13 +641,13 @@
         <v>145.86612782905843</v>
       </c>
       <c r="K3" t="n">
-        <v>83.01704518714362</v>
+        <v>83.01704518714368</v>
       </c>
       <c r="L3" t="n">
-        <v>1.07969750875148</v>
+        <v>1.1394615074965282</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6144901369940383</v>
+        <v>0.6485037264285674</v>
       </c>
     </row>
   </sheetData>
@@ -751,37 +751,37 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>34.78462317102317</v>
+        <v>27.698766812872968</v>
       </c>
       <c r="D3" t="n">
-        <v>29.722400794018398</v>
+        <v>22.6365444358682</v>
       </c>
       <c r="E3" t="n">
-        <v>23.12082927088745</v>
+        <v>16.034972912737253</v>
       </c>
       <c r="F3" t="n">
-        <v>14.98968394611616</v>
+        <v>7.90382758796596</v>
       </c>
       <c r="G3" t="n">
-        <v>21.208047319986935</v>
+        <v>14.122190961836736</v>
       </c>
       <c r="H3" t="n">
-        <v>12.051279318205646</v>
+        <v>12.05127931820565</v>
       </c>
       <c r="I3" t="n">
-        <v>14.732716847902237</v>
+        <v>14.732716847902239</v>
       </c>
       <c r="J3" t="n">
-        <v>11.663793900135719</v>
+        <v>11.663793900135715</v>
       </c>
       <c r="K3" t="n">
         <v>6.601571523130946</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5044712611074968</v>
+        <v>0.7273971689014</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2855248592421078</v>
+        <v>0.4116983270914689</v>
       </c>
     </row>
   </sheetData>
@@ -885,37 +885,37 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>172.6554928640267</v>
+        <v>161.17179097640673</v>
       </c>
       <c r="D3" t="n">
-        <v>138.54763120224948</v>
+        <v>127.0639293146295</v>
       </c>
       <c r="E3" t="n">
-        <v>93.64965379214469</v>
+        <v>82.16595190452469</v>
       </c>
       <c r="F3" t="n">
-        <v>24.609971855739985</v>
+        <v>13.126269968120003</v>
       </c>
       <c r="G3" t="n">
-        <v>67.18090834208438</v>
+        <v>55.697206454464386</v>
       </c>
       <c r="H3" t="n">
         <v>112.91796305278825</v>
       </c>
       <c r="I3" t="n">
-        <v>113.93765934650949</v>
+        <v>113.9376593465095</v>
       </c>
       <c r="J3" t="n">
-        <v>79.00583907188202</v>
+        <v>79.00583907188204</v>
       </c>
       <c r="K3" t="n">
-        <v>44.89797741010479</v>
+        <v>44.897977410104815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8436319396037</v>
+        <v>0.9615398743713863</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4794249160787696</v>
+        <v>0.5464304419216786</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
@@ -174,37 +174,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>267.78843298709495</v>
+        <v>267.3852040066991</v>
       </c>
       <c r="D2" t="n">
-        <v>201.71030198789265</v>
+        <v>203.2293320400843</v>
       </c>
       <c r="E2" t="n">
-        <v>116.99057737077709</v>
+        <v>118.16026968218289</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.31824888034592</v>
+        <v>-11.362245194159424</v>
       </c>
       <c r="G2" t="n">
-        <v>62.65531681829532</v>
+        <v>64.51381862145243</v>
       </c>
       <c r="H2" t="n">
-        <v>221.85047002686323</v>
+        <v>217.4576241541947</v>
       </c>
       <c r="I2" t="n">
-        <v>221.02855086823857</v>
+        <v>214.59157723424372</v>
       </c>
       <c r="J2" t="n">
-        <v>150.79785561631786</v>
+        <v>149.2249343245162</v>
       </c>
       <c r="K2" t="n">
-        <v>84.71972461711556</v>
+        <v>85.06906235790142</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2889743687510467</v>
+        <v>1.2629027906409518</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7241585307217877</v>
+        <v>0.7199464133478428</v>
       </c>
     </row>
     <row r="3">
@@ -215,37 +215,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>267.48369273734477</v>
+        <v>266.7715892308426</v>
       </c>
       <c r="D3" t="n">
-        <v>206.6269245827927</v>
+        <v>207.21763519796355</v>
       </c>
       <c r="E3" t="n">
-        <v>126.4995755972538</v>
+        <v>126.88664435021897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04416252474882043</v>
+        <v>6.673701377619402</v>
       </c>
       <c r="G3" t="n">
-        <v>73.4482571093704</v>
+        <v>75.31482135678573</v>
       </c>
       <c r="H3" t="n">
-        <v>212.28707157749554</v>
+        <v>207.70298142362276</v>
       </c>
       <c r="I3" t="n">
-        <v>206.58276205804387</v>
+        <v>200.54393382034414</v>
       </c>
       <c r="J3" t="n">
-        <v>140.98411714009097</v>
+        <v>139.88494488062364</v>
       </c>
       <c r="K3" t="n">
-        <v>80.1273489855389</v>
+        <v>80.33099084774457</v>
       </c>
       <c r="L3" t="n">
-        <v>1.114502688838678</v>
+        <v>1.102440257577686</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6334199036417827</v>
+        <v>0.6330925627288522</v>
       </c>
     </row>
   </sheetData>
@@ -308,37 +308,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>25.7214997378377</v>
+        <v>25.48561379555536</v>
       </c>
       <c r="D2" t="n">
-        <v>16.621497571880173</v>
+        <v>16.632131752055</v>
       </c>
       <c r="E2" t="n">
-        <v>4.58426010747845</v>
+        <v>4.1177940766906636</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.52735246901665</v>
+        <v>-11.242138912581343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6120043342496108</v>
+        <v>0.5317117111529165</v>
       </c>
       <c r="H2" t="n">
-        <v>22.867817487195573</v>
+        <v>22.954208950132596</v>
       </c>
       <c r="I2" t="n">
-        <v>27.148850040896825</v>
+        <v>27.87427066463634</v>
       </c>
       <c r="J2" t="n">
-        <v>21.13723963035925</v>
+        <v>21.367819718864695</v>
       </c>
       <c r="K2" t="n">
-        <v>12.037237464401723</v>
+        <v>12.514337675364335</v>
       </c>
       <c r="L2" t="n">
-        <v>4.610829039974717</v>
+        <v>5.189142371110824</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6257754102488633</v>
+        <v>3.039087783967502</v>
       </c>
     </row>
     <row r="3">
@@ -349,37 +349,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>23.04354067941053</v>
+        <v>23.00966514172379</v>
       </c>
       <c r="D3" t="n">
-        <v>19.05279540334587</v>
+        <v>18.96892185061872</v>
       </c>
       <c r="E3" t="n">
-        <v>13.363421340464242</v>
+        <v>13.397780973994925</v>
       </c>
       <c r="F3" t="n">
-        <v>6.2949378084119605</v>
+        <v>5.9671623019261215</v>
       </c>
       <c r="G3" t="n">
-        <v>11.417344210771299</v>
+        <v>11.346413694489994</v>
       </c>
       <c r="H3" t="n">
-        <v>10.906923519843739</v>
+        <v>10.953092702891064</v>
       </c>
       <c r="I3" t="n">
-        <v>12.757857594933908</v>
+        <v>13.001759548692599</v>
       </c>
       <c r="J3" t="n">
-        <v>9.680119338946287</v>
+        <v>9.611884167728865</v>
       </c>
       <c r="K3" t="n">
-        <v>5.689374062881626</v>
+        <v>5.5711408766237955</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7243743269274185</v>
+        <v>0.7174235932342468</v>
       </c>
       <c r="M3" t="n">
-        <v>0.42574232435927817</v>
+        <v>0.41582564212964623</v>
       </c>
     </row>
   </sheetData>
@@ -442,37 +442,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>267.78843298709495</v>
+        <v>267.3852040066991</v>
       </c>
       <c r="D2" t="n">
-        <v>201.71030198789265</v>
+        <v>203.2293320400843</v>
       </c>
       <c r="E2" t="n">
-        <v>116.99057737077709</v>
+        <v>118.16026968218289</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.31824888034592</v>
+        <v>-11.362245194159424</v>
       </c>
       <c r="G2" t="n">
-        <v>62.65531681829532</v>
+        <v>64.51381862145243</v>
       </c>
       <c r="H2" t="n">
-        <v>221.85047002686323</v>
+        <v>217.4576241541947</v>
       </c>
       <c r="I2" t="n">
-        <v>221.02855086823857</v>
+        <v>214.59157723424372</v>
       </c>
       <c r="J2" t="n">
-        <v>150.79785561631786</v>
+        <v>149.2249343245162</v>
       </c>
       <c r="K2" t="n">
-        <v>84.71972461711556</v>
+        <v>85.06906235790142</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2889743687510467</v>
+        <v>1.2629027906409518</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7241585307217877</v>
+        <v>0.7199464133478428</v>
       </c>
     </row>
     <row r="3">
@@ -483,37 +483,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>154.0160415479052</v>
+        <v>154.106644404625</v>
       </c>
       <c r="D3" t="n">
-        <v>122.23226258722894</v>
+        <v>122.38922219681854</v>
       </c>
       <c r="E3" t="n">
-        <v>80.82722532025296</v>
+        <v>80.89630458913759</v>
       </c>
       <c r="F3" t="n">
-        <v>12.516088600210448</v>
+        <v>16.614478698003577</v>
       </c>
       <c r="G3" t="n">
-        <v>52.63654792747733</v>
+        <v>53.53636137857051</v>
       </c>
       <c r="H3" t="n">
-        <v>111.06988048708574</v>
+        <v>108.7957823043968</v>
       </c>
       <c r="I3" t="n">
-        <v>109.7161739870185</v>
+        <v>105.77474349881496</v>
       </c>
       <c r="J3" t="n">
-        <v>73.18881622765223</v>
+        <v>73.21033981548742</v>
       </c>
       <c r="K3" t="n">
-        <v>41.40503726697598</v>
+        <v>41.49291760768095</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9054970764821395</v>
+        <v>0.9049899150191565</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5122659735370265</v>
+        <v>0.5129148706905513</v>
       </c>
     </row>
   </sheetData>
@@ -576,37 +576,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>274.61006562309785</v>
+        <v>274.2247783012274</v>
       </c>
       <c r="D2" t="n">
-        <v>207.0695044566649</v>
+        <v>208.89868617073873</v>
       </c>
       <c r="E2" t="n">
-        <v>118.16425034208515</v>
+        <v>119.97297759050107</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.847273768277315</v>
+        <v>-9.917451256460335</v>
       </c>
       <c r="G2" t="n">
-        <v>65.70966793251223</v>
+        <v>67.66218101534052</v>
       </c>
       <c r="H2" t="n">
-        <v>223.70602722060227</v>
+        <v>219.31886951837558</v>
       </c>
       <c r="I2" t="n">
-        <v>225.91677822494222</v>
+        <v>218.81613742719907</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4458152810127</v>
+        <v>154.25180071072631</v>
       </c>
       <c r="K2" t="n">
-        <v>88.90525411457975</v>
+        <v>88.92570858023765</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3239690924124896</v>
+        <v>1.2857211999624427</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7523870701773108</v>
+        <v>0.7412144831794054</v>
       </c>
     </row>
     <row r="3">
@@ -617,37 +617,37 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>273.87934009590884</v>
+        <v>268.62848268775684</v>
       </c>
       <c r="D3" t="n">
-        <v>211.0302574539941</v>
+        <v>207.885791049491</v>
       </c>
       <c r="E3" t="n">
-        <v>128.01321226685042</v>
+        <v>125.11735192198401</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4180575439565928</v>
+        <v>2.924936401401091</v>
       </c>
       <c r="G3" t="n">
-        <v>76.50242746632463</v>
+        <v>73.88520282235366</v>
       </c>
       <c r="H3" t="n">
-        <v>214.14349787211336</v>
+        <v>209.56721990070872</v>
       </c>
       <c r="I3" t="n">
-        <v>209.6121999100375</v>
+        <v>204.9608546480899</v>
       </c>
       <c r="J3" t="n">
-        <v>145.86612782905843</v>
+        <v>143.51113076577283</v>
       </c>
       <c r="K3" t="n">
-        <v>83.01704518714368</v>
+        <v>82.76843912750698</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1394615074965282</v>
+        <v>1.1470122134239071</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6485037264285674</v>
+        <v>0.661526461806166</v>
       </c>
     </row>
   </sheetData>
@@ -710,37 +710,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>30.495581029404637</v>
+        <v>30.615091328940352</v>
       </c>
       <c r="D2" t="n">
-        <v>20.371136275395095</v>
+        <v>20.237754889378927</v>
       </c>
       <c r="E2" t="n">
-        <v>7.12889234936849</v>
+        <v>6.975439641384321</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.147835685099293</v>
+        <v>-9.599560580001524</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3167026840340466</v>
+        <v>3.2960123940077235</v>
       </c>
       <c r="H2" t="n">
-        <v>24.121175713179586</v>
+        <v>24.20045556793267</v>
       </c>
       <c r="I2" t="n">
-        <v>29.51897196049439</v>
+        <v>29.83731546938045</v>
       </c>
       <c r="J2" t="n">
-        <v>23.366688680036148</v>
+        <v>23.639651687556032</v>
       </c>
       <c r="K2" t="n">
-        <v>13.242243926026605</v>
+        <v>13.262315247994605</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2777446389839335</v>
+        <v>3.3889837634470004</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8575457837008384</v>
+        <v>1.9012873639262993</v>
       </c>
     </row>
     <row r="3">
@@ -751,37 +751,37 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>27.698766812872968</v>
+        <v>23.178577173891092</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6365444358682</v>
+        <v>17.99329133937985</v>
       </c>
       <c r="E3" t="n">
-        <v>16.034972912737253</v>
+        <v>11.354804722644037</v>
       </c>
       <c r="F3" t="n">
-        <v>7.90382758796596</v>
+        <v>3.015675190797296</v>
       </c>
       <c r="G3" t="n">
-        <v>14.122190961836736</v>
+        <v>9.532718867194944</v>
       </c>
       <c r="H3" t="n">
-        <v>12.05127931820565</v>
+        <v>12.088932101949993</v>
       </c>
       <c r="I3" t="n">
-        <v>14.732716847902239</v>
+        <v>14.977616148582555</v>
       </c>
       <c r="J3" t="n">
-        <v>11.663793900135715</v>
+        <v>11.823772451247056</v>
       </c>
       <c r="K3" t="n">
-        <v>6.601571523130946</v>
+        <v>6.638486616735815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7273971689014</v>
+        <v>1.041301258811417</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4116983270914689</v>
+        <v>0.5846411962943914</v>
       </c>
     </row>
   </sheetData>
@@ -844,37 +844,37 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>274.61006562309785</v>
+        <v>274.2247783012274</v>
       </c>
       <c r="D2" t="n">
-        <v>207.0695044566649</v>
+        <v>208.89868617073873</v>
       </c>
       <c r="E2" t="n">
-        <v>118.16425034208515</v>
+        <v>119.97297759050107</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.847273768277315</v>
+        <v>-9.917451256460335</v>
       </c>
       <c r="G2" t="n">
-        <v>65.70966793251223</v>
+        <v>67.66218101534052</v>
       </c>
       <c r="H2" t="n">
-        <v>223.70602722060227</v>
+        <v>219.31886951837558</v>
       </c>
       <c r="I2" t="n">
-        <v>225.91677822494222</v>
+        <v>218.81613742719907</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4458152810127</v>
+        <v>154.25180071072631</v>
       </c>
       <c r="K2" t="n">
-        <v>88.90525411457975</v>
+        <v>88.92570858023765</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3239690924124896</v>
+        <v>1.2857211999624427</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7523870701773108</v>
+        <v>0.7412144831794054</v>
       </c>
     </row>
     <row r="3">
@@ -885,37 +885,37 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>161.17179097640673</v>
+        <v>147.06006939838636</v>
       </c>
       <c r="D3" t="n">
-        <v>127.0639293146295</v>
+        <v>114.06428067436481</v>
       </c>
       <c r="E3" t="n">
-        <v>82.16595190452469</v>
+        <v>69.06247010071135</v>
       </c>
       <c r="F3" t="n">
-        <v>13.126269968120003</v>
+        <v>3.754386232932161</v>
       </c>
       <c r="G3" t="n">
-        <v>55.697206454464386</v>
+        <v>42.79603737050338</v>
       </c>
       <c r="H3" t="n">
-        <v>112.91796305278825</v>
+        <v>110.6524671305458</v>
       </c>
       <c r="I3" t="n">
-        <v>113.9376593465095</v>
+        <v>110.30989444143265</v>
       </c>
       <c r="J3" t="n">
-        <v>79.00583907188204</v>
+        <v>77.99759929767501</v>
       </c>
       <c r="K3" t="n">
-        <v>44.897977410104815</v>
+        <v>45.00181057365346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9615398743713863</v>
+        <v>1.1293774923476363</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5464304419216786</v>
+        <v>0.6516102089605094</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Results\RiskTransfer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="hybNew.tot" r:id="rId3" sheetId="1"/>
-    <sheet name="hybNew.new" r:id="rId4" sheetId="2"/>
-    <sheet name="hybAll.tot" r:id="rId5" sheetId="3"/>
-    <sheet name="hybNew.tot.SR0" r:id="rId6" sheetId="4"/>
-    <sheet name="hybNew.new.SR0" r:id="rId7" sheetId="5"/>
-    <sheet name="hybAll.tot.SR0" r:id="rId8" sheetId="6"/>
+    <sheet name="hybNew.tot" sheetId="1" r:id="rId1"/>
+    <sheet name="hybNew.new" sheetId="2" r:id="rId2"/>
+    <sheet name="hybAll.tot" sheetId="3" r:id="rId3"/>
+    <sheet name="hybNew.tot.SR0" sheetId="4" r:id="rId4"/>
+    <sheet name="hybNew.new.SR0" sheetId="5" r:id="rId5"/>
+    <sheet name="hybAll.tot.SR0" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -82,11 +89,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,7 +104,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,24 +117,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -166,103 +481,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>267.3852040066991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>203.2293320400843</v>
-      </c>
-      <c r="E2" t="n">
-        <v>118.16026968218289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-11.362245194159424</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64.51381862145243</v>
-      </c>
-      <c r="H2" t="n">
-        <v>217.4576241541947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>214.59157723424372</v>
-      </c>
-      <c r="J2" t="n">
-        <v>149.2249343245162</v>
-      </c>
-      <c r="K2" t="n">
-        <v>85.06906235790142</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.2629027906409518</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7199464133478428</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>264.0006261033281</v>
+      </c>
+      <c r="D2">
+        <v>201.32625100562836</v>
+      </c>
+      <c r="E2">
+        <v>118.38840933066905</v>
+      </c>
+      <c r="F2">
+        <v>-8.073497109327505</v>
+      </c>
+      <c r="G2">
+        <v>65.816854135154657</v>
+      </c>
+      <c r="H2">
+        <v>213.93458374902616</v>
+      </c>
+      <c r="I2">
+        <v>209.39974811495586</v>
+      </c>
+      <c r="J2">
+        <v>145.61221677265905</v>
+      </c>
+      <c r="K2">
+        <v>82.937841674959316</v>
+      </c>
+      <c r="L2">
+        <v>1.2299533171862422</v>
+      </c>
+      <c r="M2">
+        <v>0.70055710811441663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>266.7715892308426</v>
-      </c>
-      <c r="D3" t="n">
-        <v>207.21763519796355</v>
-      </c>
-      <c r="E3" t="n">
-        <v>126.88664435021897</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.673701377619402</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75.31482135678573</v>
-      </c>
-      <c r="H3" t="n">
-        <v>207.70298142362276</v>
-      </c>
-      <c r="I3" t="n">
-        <v>200.54393382034414</v>
-      </c>
-      <c r="J3" t="n">
-        <v>139.88494488062364</v>
-      </c>
-      <c r="K3" t="n">
-        <v>80.33099084774457</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.102440257577686</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.6330925627288522</v>
+      <c r="C3">
+        <v>258.77368406679159</v>
+      </c>
+      <c r="D3">
+        <v>200.17132146928878</v>
+      </c>
+      <c r="E3">
+        <v>121.81157186745416</v>
+      </c>
+      <c r="F3">
+        <v>5.5244071475419467</v>
+      </c>
+      <c r="G3">
+        <v>72.001279225073958</v>
+      </c>
+      <c r="H3">
+        <v>204.14173242649778</v>
+      </c>
+      <c r="I3">
+        <v>194.64691432174683</v>
+      </c>
+      <c r="J3">
+        <v>136.96211219933741</v>
+      </c>
+      <c r="K3">
+        <v>78.359749601834622</v>
+      </c>
+      <c r="L3">
+        <v>1.1243768559884351</v>
+      </c>
+      <c r="M3">
+        <v>0.64328658107375536</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -300,103 +614,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>25.48561379555536</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.632131752055</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.1177940766906636</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-11.242138912581343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5317117111529165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22.954208950132596</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27.87427066463634</v>
-      </c>
-      <c r="J2" t="n">
-        <v>21.367819718864695</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.514337675364335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.189142371110824</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.039087783967502</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>25.591711597793882</v>
+      </c>
+      <c r="D2">
+        <v>16.907174601143232</v>
+      </c>
+      <c r="E2">
+        <v>4.8892321478723577</v>
+      </c>
+      <c r="F2">
+        <v>-9.707406030607677</v>
+      </c>
+      <c r="G2">
+        <v>1.6871753020357372</v>
+      </c>
+      <c r="H2">
+        <v>21.688094945512976</v>
+      </c>
+      <c r="I2">
+        <v>26.614580631750911</v>
+      </c>
+      <c r="J2">
+        <v>20.702479449921526</v>
+      </c>
+      <c r="K2">
+        <v>12.017942453270875</v>
+      </c>
+      <c r="L2">
+        <v>4.2343007703020605</v>
+      </c>
+      <c r="M2">
+        <v>2.4580429175367979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.00966514172379</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.96892185061872</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.397780973994925</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.9671623019261215</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.346413694489994</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.953092702891064</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.001759548692599</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.611884167728865</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.5711408766237955</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7174235932342468</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.41582564212964623</v>
+      <c r="C3">
+        <v>20.699811499853055</v>
+      </c>
+      <c r="D3">
+        <v>14.910071760279259</v>
+      </c>
+      <c r="E3">
+        <v>8.874082079566822</v>
+      </c>
+      <c r="F3">
+        <v>2.1884832208788239</v>
+      </c>
+      <c r="G3">
+        <v>7.8869155053640787</v>
+      </c>
+      <c r="H3">
+        <v>10.683113342311696</v>
+      </c>
+      <c r="I3">
+        <v>12.721588539400434</v>
+      </c>
+      <c r="J3">
+        <v>11.825729420286233</v>
+      </c>
+      <c r="K3">
+        <v>6.0359896807124365</v>
+      </c>
+      <c r="L3">
+        <v>1.3326143835784188</v>
+      </c>
+      <c r="M3">
+        <v>0.68018186293438876</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -434,103 +747,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>267.3852040066991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>203.2293320400843</v>
-      </c>
-      <c r="E2" t="n">
-        <v>118.16026968218289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-11.362245194159424</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64.51381862145243</v>
-      </c>
-      <c r="H2" t="n">
-        <v>217.4576241541947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>214.59157723424372</v>
-      </c>
-      <c r="J2" t="n">
-        <v>149.2249343245162</v>
-      </c>
-      <c r="K2" t="n">
-        <v>85.06906235790142</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.2629027906409518</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7199464133478428</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>264.0006261033281</v>
+      </c>
+      <c r="D2">
+        <v>201.32625100562836</v>
+      </c>
+      <c r="E2">
+        <v>118.38840933066905</v>
+      </c>
+      <c r="F2">
+        <v>-8.073497109327505</v>
+      </c>
+      <c r="G2">
+        <v>65.816854135154657</v>
+      </c>
+      <c r="H2">
+        <v>213.93458374902616</v>
+      </c>
+      <c r="I2">
+        <v>209.39974811495586</v>
+      </c>
+      <c r="J2">
+        <v>145.61221677265905</v>
+      </c>
+      <c r="K2">
+        <v>82.937841674959316</v>
+      </c>
+      <c r="L2">
+        <v>1.2299533171862422</v>
+      </c>
+      <c r="M2">
+        <v>0.70055710811441663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>154.106644404625</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>122.38922219681854</v>
       </c>
-      <c r="E3" t="n">
-        <v>80.89630458913759</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>80.896304589137586</v>
+      </c>
+      <c r="F3">
         <v>16.614478698003577</v>
       </c>
-      <c r="G3" t="n">
-        <v>53.53636137857051</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.7957823043968</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>53.536361378570511</v>
+      </c>
+      <c r="H3">
+        <v>108.79578230439679</v>
+      </c>
+      <c r="I3">
         <v>105.77474349881496</v>
       </c>
-      <c r="J3" t="n">
-        <v>73.21033981548742</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41.49291760768095</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9049899150191565</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5129148706905513</v>
+      <c r="J3">
+        <v>73.210339815487416</v>
+      </c>
+      <c r="K3">
+        <v>41.492917607680951</v>
+      </c>
+      <c r="L3">
+        <v>0.90498991501915649</v>
+      </c>
+      <c r="M3">
+        <v>0.51291487069055131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -568,103 +880,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
-        <v>274.2247783012274</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>274.22477830122739</v>
+      </c>
+      <c r="D2">
         <v>208.89868617073873</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>119.97297759050107</v>
       </c>
-      <c r="F2" t="n">
-        <v>-9.917451256460335</v>
-      </c>
-      <c r="G2" t="n">
-        <v>67.66218101534052</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>-9.9174512564603354</v>
+      </c>
+      <c r="G2">
+        <v>67.662181015340522</v>
+      </c>
+      <c r="H2">
         <v>219.31886951837558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>218.81613742719907</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>154.25180071072631</v>
       </c>
-      <c r="K2" t="n">
-        <v>88.92570858023765</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>88.925708580237654</v>
+      </c>
+      <c r="L2">
         <v>1.2857211999624427</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7412144831794054</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.74121448317940541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>268.62848268775684</v>
       </c>
-      <c r="D3" t="n">
-        <v>207.885791049491</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>207.88579104949099</v>
+      </c>
+      <c r="E3">
         <v>125.11735192198401</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.924936401401091</v>
-      </c>
-      <c r="G3" t="n">
-        <v>73.88520282235366</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>2.9249364014010908</v>
+      </c>
+      <c r="G3">
+        <v>73.885202822353662</v>
+      </c>
+      <c r="H3">
         <v>209.56721990070872</v>
       </c>
-      <c r="I3" t="n">
-        <v>204.9608546480899</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>204.96085464808991</v>
+      </c>
+      <c r="J3">
         <v>143.51113076577283</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>82.76843912750698</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1.1470122134239071</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.661526461806166</v>
+      <c r="M3">
+        <v>0.66152646180616603</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -702,103 +1013,104 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>30.615091328940352</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>20.237754889378927</v>
       </c>
-      <c r="E2" t="n">
-        <v>6.975439641384321</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-9.599560580001524</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>6.9754396413843214</v>
+      </c>
+      <c r="F2">
+        <v>-9.5995605800015245</v>
+      </c>
+      <c r="G2">
         <v>3.2960123940077235</v>
       </c>
-      <c r="H2" t="n">
-        <v>24.20045556793267</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.83731546938045</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2">
+        <v>24.200455567932671</v>
+      </c>
+      <c r="I2">
+        <v>29.837315469380449</v>
+      </c>
+      <c r="J2">
         <v>23.639651687556032</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>13.262315247994605</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3.3889837634470004</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>1.9012873639262993</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>23.178577173891092</v>
       </c>
-      <c r="D3" t="n">
-        <v>17.99329133937985</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>17.993291339379851</v>
+      </c>
+      <c r="E3">
         <v>11.354804722644037</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.015675190797296</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.532718867194944</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>3.0156751907972961</v>
+      </c>
+      <c r="G3">
+        <v>9.5327188671949443</v>
+      </c>
+      <c r="H3">
         <v>12.088932101949993</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>14.977616148582555</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>11.823772451247056</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.638486616735815</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>6.6384866167358147</v>
+      </c>
+      <c r="L3">
         <v>1.041301258811417</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.5846411962943914</v>
+      <c r="M3">
+        <v>0.58464119629439137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -836,89 +1148,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
-        <v>274.2247783012274</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>274.22477830122739</v>
+      </c>
+      <c r="D2">
         <v>208.89868617073873</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>119.97297759050107</v>
       </c>
-      <c r="F2" t="n">
-        <v>-9.917451256460335</v>
-      </c>
-      <c r="G2" t="n">
-        <v>67.66218101534052</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>-9.9174512564603354</v>
+      </c>
+      <c r="G2">
+        <v>67.662181015340522</v>
+      </c>
+      <c r="H2">
         <v>219.31886951837558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>218.81613742719907</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>154.25180071072631</v>
       </c>
-      <c r="K2" t="n">
-        <v>88.92570858023765</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>88.925708580237654</v>
+      </c>
+      <c r="L2">
         <v>1.2857211999624427</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7412144831794054</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.74121448317940541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>147.06006939838636</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>114.06428067436481</v>
       </c>
-      <c r="E3" t="n">
-        <v>69.06247010071135</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.754386232932161</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42.79603737050338</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="E3">
+        <v>69.062470100711352</v>
+      </c>
+      <c r="F3">
+        <v>3.7543862329321609</v>
+      </c>
+      <c r="G3">
+        <v>42.796037370503377</v>
+      </c>
+      <c r="H3">
         <v>110.6524671305458</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>110.30989444143265</v>
       </c>
-      <c r="J3" t="n">
-        <v>77.99759929767501</v>
-      </c>
-      <c r="K3" t="n">
-        <v>45.00181057365346</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="J3">
+        <v>77.997599297675009</v>
+      </c>
+      <c r="K3">
+        <v>45.001810573653458</v>
+      </c>
+      <c r="L3">
         <v>1.1293774923476363</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.6516102089605094</v>
+      <c r="M3">
+        <v>0.65161020896050936</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
+++ b/Results/RiskTransfer/RiskTransfer_stch.tab.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Results\RiskTransfer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075"/>
   </bookViews>
   <sheets>
-    <sheet name="hybNew.tot" r:id="rId3" sheetId="1"/>
-    <sheet name="hybNew.new" r:id="rId4" sheetId="2"/>
-    <sheet name="hybAll.tot" r:id="rId5" sheetId="3"/>
-    <sheet name="hybNew.tot.SR0" r:id="rId6" sheetId="4"/>
-    <sheet name="hybNew.new.SR0" r:id="rId7" sheetId="5"/>
-    <sheet name="hybAll.tot.SR0" r:id="rId8" sheetId="6"/>
+    <sheet name="hybNew.tot" sheetId="1" r:id="rId1"/>
+    <sheet name="hybNew.new" sheetId="2" r:id="rId2"/>
+    <sheet name="hybAll.tot" sheetId="3" r:id="rId3"/>
+    <sheet name="hybNew.tot.SR0" sheetId="4" r:id="rId4"/>
+    <sheet name="hybNew.new.SR0" sheetId="5" r:id="rId5"/>
+    <sheet name="hybAll.tot.SR0" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -82,11 +89,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,7 +104,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,24 +117,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -166,103 +481,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>264.0006261033281</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>201.32625100562836</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>118.38840933066905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-8.073497109327505</v>
       </c>
-      <c r="G2" t="n">
-        <v>65.81685413515466</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>65.816854135154657</v>
+      </c>
+      <c r="H2">
         <v>213.93458374902616</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>209.39974811495586</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>145.61221677265905</v>
       </c>
-      <c r="K2" t="n">
-        <v>82.93784167495932</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>82.937841674959316</v>
+      </c>
+      <c r="L2">
         <v>1.2299533171862422</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7005571081144166</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.70055710811441663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>258.7736840667916</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>258.77368406679159</v>
+      </c>
+      <c r="D3">
         <v>200.17132146928878</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>121.81157186745416</v>
       </c>
-      <c r="F3" t="n">
-        <v>5.524407147541947</v>
-      </c>
-      <c r="G3" t="n">
-        <v>72.00127922507396</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>5.5244071475419467</v>
+      </c>
+      <c r="G3">
+        <v>72.001279225073958</v>
+      </c>
+      <c r="H3">
         <v>204.14173242649778</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>194.64691432174683</v>
       </c>
-      <c r="J3" t="n">
-        <v>136.9621121993374</v>
-      </c>
-      <c r="K3" t="n">
-        <v>78.35974960183462</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.124376855988435</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.6432865810737554</v>
+      <c r="J3">
+        <v>136.96211219933741</v>
+      </c>
+      <c r="K3">
+        <v>78.359749601834622</v>
+      </c>
+      <c r="L3">
+        <v>1.1243768559884351</v>
+      </c>
+      <c r="M3">
+        <v>0.64328658107375536</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -300,103 +614,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>25.591711597793882</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>16.907174601143232</v>
       </c>
-      <c r="E2" t="n">
-        <v>4.889232147872358</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>4.8892321478723577</v>
+      </c>
+      <c r="F2">
         <v>-9.707406030607677</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.6871753020357372</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>21.688094945512976</v>
       </c>
-      <c r="I2" t="n">
-        <v>26.61458063175091</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>26.614580631750911</v>
+      </c>
+      <c r="J2">
         <v>20.702479449921526</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>12.017942453270875</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>4.2343007703020605</v>
       </c>
-      <c r="M2" t="n">
-        <v>2.458042917536798</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>2.4580429175367979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>20.699811499853055</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>14.910071760279259</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>8.874082079566822</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.188483220878824</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.886915505364079</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>2.1884832208788239</v>
+      </c>
+      <c r="G3">
+        <v>7.8869155053640787</v>
+      </c>
+      <c r="H3">
         <v>10.683113342311696</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12.721588539400434</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>11.825729420286233</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>6.0359896807124365</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1.3326143835784188</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.6801818629343888</v>
+      <c r="M3">
+        <v>0.68018186293438876</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -434,103 +747,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>264.0006261033281</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>201.32625100562836</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>118.38840933066905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-8.073497109327505</v>
       </c>
-      <c r="G2" t="n">
-        <v>65.81685413515466</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>65.816854135154657</v>
+      </c>
+      <c r="H2">
         <v>213.93458374902616</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>209.39974811495586</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>145.61221677265905</v>
       </c>
-      <c r="K2" t="n">
-        <v>82.93784167495932</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>82.937841674959316</v>
+      </c>
+      <c r="L2">
         <v>1.2299533171862422</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7005571081144166</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.70055710811441663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>154.106644404625</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>122.38922219681854</v>
       </c>
-      <c r="E3" t="n">
-        <v>80.89630458913759</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>80.896304589137586</v>
+      </c>
+      <c r="F3">
         <v>16.614478698003577</v>
       </c>
-      <c r="G3" t="n">
-        <v>53.53636137857051</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.7957823043968</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>53.536361378570511</v>
+      </c>
+      <c r="H3">
+        <v>108.79578230439679</v>
+      </c>
+      <c r="I3">
         <v>105.77474349881496</v>
       </c>
-      <c r="J3" t="n">
-        <v>73.21033981548742</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41.49291760768095</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9049899150191565</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5129148706905513</v>
+      <c r="J3">
+        <v>73.210339815487416</v>
+      </c>
+      <c r="K3">
+        <v>41.492917607680951</v>
+      </c>
+      <c r="L3">
+        <v>0.90498991501915649</v>
+      </c>
+      <c r="M3">
+        <v>0.51291487069055131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -568,103 +880,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>282.41378038053085</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>217.29040774693635</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>129.08039554774626</v>
       </c>
-      <c r="F2" t="n">
-        <v>-0.4096807132737439</v>
-      </c>
-      <c r="G2" t="n">
-        <v>76.77962777109843</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>-0.40968071327374389</v>
+      </c>
+      <c r="G2">
+        <v>76.779627771098433</v>
+      </c>
+      <c r="H2">
         <v>218.27471304165408</v>
       </c>
-      <c r="I2" t="n">
-        <v>217.7000884602101</v>
-      </c>
-      <c r="J2" t="n">
-        <v>153.3333848327846</v>
-      </c>
-      <c r="K2" t="n">
-        <v>88.21001219919009</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2">
+        <v>217.70008846021011</v>
+      </c>
+      <c r="J2">
+        <v>153.33338483278459</v>
+      </c>
+      <c r="K2">
+        <v>88.210012199190089</v>
+      </c>
+      <c r="L2">
         <v>1.1878905714699894</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.683372651787092</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.68337265178709194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>275.27414830463437</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>214.41208444981174</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>131.5370441376393</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10.560352003590829</v>
       </c>
-      <c r="G3" t="n">
-        <v>81.01257467225281</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>81.012574672252811</v>
+      </c>
+      <c r="H3">
         <v>208.62821716670197</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>203.85173244622092</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>143.73710416699507</v>
       </c>
-      <c r="K3" t="n">
-        <v>82.87504031217244</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>82.875040312172445</v>
+      </c>
+      <c r="L3">
         <v>1.0927499938085101</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.6300509552689406</v>
+      <c r="M3">
+        <v>0.63005095526894062</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -702,103 +1013,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>34.392572267661784</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>24.114671582271704</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10.823809570621954</v>
       </c>
-      <c r="F2" t="n">
-        <v>-5.753580204453531</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.279028197851302</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>-5.7535802044535309</v>
+      </c>
+      <c r="G2">
+        <v>7.2790281978513018</v>
+      </c>
+      <c r="H2">
         <v>24.015010829981353</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>29.868251786725235</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>23.56876269703983</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>13.29086201164975</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.177492364704041</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>2.1774923647040412</v>
+      </c>
+      <c r="M2">
         <v>1.2279282931698914</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>25.069459865108893</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19.930509522413853</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>13.316950526847428</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.996383629051236</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.52226823603191</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>4.9963836290512358</v>
+      </c>
+      <c r="G3">
+        <v>11.522268236031911</v>
+      </c>
+      <c r="H3">
         <v>12.002223895978693</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>14.934125893362618</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>11.752509338261465</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.613558995566425</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.8825225650998705</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.496627135636891</v>
+      <c r="K3">
+        <v>6.6135589955664251</v>
+      </c>
+      <c r="L3">
+        <v>0.88252256509987048</v>
+      </c>
+      <c r="M3">
+        <v>0.49662713563689098</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -836,89 +1146,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>282.41378038053085</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>217.29040774693635</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>129.08039554774626</v>
       </c>
-      <c r="F2" t="n">
-        <v>-0.4096807132737439</v>
-      </c>
-      <c r="G2" t="n">
-        <v>76.77962777109843</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>-0.40968071327374389</v>
+      </c>
+      <c r="G2">
+        <v>76.779627771098433</v>
+      </c>
+      <c r="H2">
         <v>218.27471304165408</v>
       </c>
-      <c r="I2" t="n">
-        <v>217.7000884602101</v>
-      </c>
-      <c r="J2" t="n">
-        <v>153.3333848327846</v>
-      </c>
-      <c r="K2" t="n">
-        <v>88.21001219919009</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2">
+        <v>217.70008846021011</v>
+      </c>
+      <c r="J2">
+        <v>153.33338483278459</v>
+      </c>
+      <c r="K2">
+        <v>88.210012199190089</v>
+      </c>
+      <c r="L2">
         <v>1.1878905714699894</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.683372651787092</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>0.68337265178709194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
-        <v>151.1572313366235</v>
-      </c>
-      <c r="D3" t="n">
-        <v>118.22793817930686</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73.56351281171663</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.329707244811207</v>
-      </c>
-      <c r="G3" t="n">
-        <v>47.3447234739123</v>
-      </c>
-      <c r="H3" t="n">
-        <v>110.1413934660253</v>
-      </c>
-      <c r="I3" t="n">
-        <v>109.89823093449566</v>
-      </c>
-      <c r="J3" t="n">
-        <v>77.59371852490688</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44.664425367590226</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.0547853896469763</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.6071546023353633</v>
+      <c r="C3">
+        <v>149.15311886659902</v>
+      </c>
+      <c r="D3">
+        <v>116.50272910373633</v>
+      </c>
+      <c r="E3">
+        <v>72.304983308806484</v>
+      </c>
+      <c r="F3">
+        <v>7.6090880005419734</v>
+      </c>
+      <c r="G3">
+        <v>46.238430351737371</v>
+      </c>
+      <c r="H3">
+        <v>109.24977286928377</v>
+      </c>
+      <c r="I3">
+        <v>108.89364110319435</v>
+      </c>
+      <c r="J3">
+        <v>76.848135557792531</v>
+      </c>
+      <c r="K3">
+        <v>44.197745794929844</v>
+      </c>
+      <c r="L3">
+        <v>1.0628331830128879</v>
+      </c>
+      <c r="M3">
+        <v>0.61126832166140233</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>